--- a/data_year/zb/批发和零售业/限额以上批发业企业基本情况和商品购销存情况/按国民经济行业分限额以上批发业法人企业数.xlsx
+++ b/data_year/zb/批发和零售业/限额以上批发业企业基本情况和商品购销存情况/按国民经济行业分限额以上批发业法人企业数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,939 +538,805 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1401</v>
+        <v>2851</v>
       </c>
       <c r="C2" t="n">
-        <v>1728</v>
+        <v>2261</v>
       </c>
       <c r="D2" t="n">
-        <v>699</v>
+        <v>1186</v>
       </c>
       <c r="E2" t="n">
-        <v>1954</v>
+        <v>3462</v>
       </c>
       <c r="F2" t="n">
-        <v>1047</v>
+        <v>2827</v>
       </c>
       <c r="G2" t="n">
-        <v>808</v>
+        <v>1303</v>
       </c>
       <c r="H2" t="n">
-        <v>688</v>
+        <v>1036</v>
       </c>
       <c r="I2" t="n">
-        <v>764</v>
+        <v>1635</v>
       </c>
       <c r="J2" t="n">
-        <v>6616</v>
+        <v>11067</v>
       </c>
       <c r="K2" t="n">
-        <v>1526</v>
+        <v>2001</v>
       </c>
       <c r="L2" t="n">
-        <v>1428</v>
+        <v>618</v>
       </c>
       <c r="M2" t="n">
-        <v>1153</v>
+        <v>3760</v>
       </c>
       <c r="N2" t="n">
-        <v>1911</v>
+        <v>2687</v>
       </c>
       <c r="O2" t="n">
-        <v>11789</v>
+        <v>26966</v>
       </c>
       <c r="P2" t="n">
-        <v>658</v>
+        <v>950</v>
       </c>
       <c r="Q2" t="n">
-        <v>2499</v>
+        <v>5758</v>
       </c>
       <c r="R2" t="n">
-        <v>876</v>
+        <v>1355</v>
       </c>
       <c r="S2" t="n">
-        <v>300</v>
+        <v>926</v>
       </c>
       <c r="T2" t="n">
-        <v>4580</v>
+        <v>10506</v>
       </c>
       <c r="U2" t="n">
-        <v>3661</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2774</v>
+        <v>3192</v>
       </c>
       <c r="C3" t="n">
-        <v>2123</v>
+        <v>2565</v>
       </c>
       <c r="D3" t="n">
-        <v>1074</v>
+        <v>1251</v>
       </c>
       <c r="E3" t="n">
-        <v>3078</v>
+        <v>3834</v>
       </c>
       <c r="F3" t="n">
-        <v>2567</v>
+        <v>3229</v>
       </c>
       <c r="G3" t="n">
-        <v>1417</v>
+        <v>1463</v>
       </c>
       <c r="H3" t="n">
-        <v>1017</v>
+        <v>1201</v>
       </c>
       <c r="I3" t="n">
-        <v>1643</v>
+        <v>1883</v>
       </c>
       <c r="J3" t="n">
-        <v>11024</v>
+        <v>12295</v>
       </c>
       <c r="K3" t="n">
-        <v>1985</v>
+        <v>2198</v>
       </c>
       <c r="L3" t="n">
-        <v>902</v>
+        <v>617</v>
       </c>
       <c r="M3" t="n">
-        <v>3235</v>
+        <v>4349</v>
       </c>
       <c r="N3" t="n">
-        <v>2645</v>
+        <v>3095</v>
       </c>
       <c r="O3" t="n">
-        <v>27772</v>
+        <v>30249</v>
       </c>
       <c r="P3" t="n">
-        <v>905</v>
+        <v>1038</v>
       </c>
       <c r="Q3" t="n">
-        <v>5550</v>
+        <v>6685</v>
       </c>
       <c r="R3" t="n">
-        <v>1331</v>
+        <v>1479</v>
       </c>
       <c r="S3" t="n">
-        <v>1013</v>
+        <v>973</v>
       </c>
       <c r="T3" t="n">
-        <v>12097</v>
+        <v>11667</v>
       </c>
       <c r="U3" t="n">
-        <v>4681</v>
+        <v>5496</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2407</v>
+        <v>3092</v>
       </c>
       <c r="C4" t="n">
-        <v>1931</v>
+        <v>2922</v>
       </c>
       <c r="D4" t="n">
-        <v>1007</v>
+        <v>1424</v>
       </c>
       <c r="E4" t="n">
-        <v>3068</v>
+        <v>4335</v>
       </c>
       <c r="F4" t="n">
-        <v>2337</v>
+        <v>3514</v>
       </c>
       <c r="G4" t="n">
-        <v>1268</v>
+        <v>1645</v>
       </c>
       <c r="H4" t="n">
-        <v>946</v>
+        <v>1266</v>
       </c>
       <c r="I4" t="n">
-        <v>1542</v>
+        <v>2043</v>
       </c>
       <c r="J4" t="n">
-        <v>10230</v>
+        <v>11491</v>
       </c>
       <c r="K4" t="n">
-        <v>1838</v>
+        <v>1258</v>
       </c>
       <c r="L4" t="n">
-        <v>742</v>
+        <v>598</v>
       </c>
       <c r="M4" t="n">
-        <v>3029</v>
+        <v>5215</v>
       </c>
       <c r="N4" t="n">
-        <v>2352</v>
+        <v>3417</v>
       </c>
       <c r="O4" t="n">
-        <v>23599</v>
+        <v>33376</v>
       </c>
       <c r="P4" t="n">
-        <v>807</v>
+        <v>1171</v>
       </c>
       <c r="Q4" t="n">
-        <v>5210</v>
+        <v>8764</v>
       </c>
       <c r="R4" t="n">
-        <v>1368</v>
+        <v>1420</v>
       </c>
       <c r="S4" t="n">
-        <v>859</v>
+        <v>949</v>
       </c>
       <c r="T4" t="n">
-        <v>9546</v>
+        <v>12487</v>
       </c>
       <c r="U4" t="n">
-        <v>4281</v>
+        <v>6370</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2851</v>
+        <v>3476</v>
       </c>
       <c r="C5" t="n">
-        <v>2261</v>
+        <v>4455</v>
       </c>
       <c r="D5" t="n">
-        <v>1186</v>
+        <v>1755</v>
       </c>
       <c r="E5" t="n">
-        <v>3462</v>
+        <v>5175</v>
       </c>
       <c r="F5" t="n">
-        <v>2827</v>
+        <v>4654</v>
       </c>
       <c r="G5" t="n">
-        <v>1303</v>
+        <v>2383</v>
       </c>
       <c r="H5" t="n">
-        <v>1036</v>
+        <v>1534</v>
       </c>
       <c r="I5" t="n">
-        <v>1635</v>
+        <v>2630</v>
       </c>
       <c r="J5" t="n">
-        <v>11067</v>
+        <v>14184</v>
       </c>
       <c r="K5" t="n">
-        <v>2001</v>
+        <v>1487</v>
       </c>
       <c r="L5" t="n">
-        <v>618</v>
+        <v>601</v>
       </c>
       <c r="M5" t="n">
-        <v>3760</v>
+        <v>5936</v>
       </c>
       <c r="N5" t="n">
-        <v>2687</v>
+        <v>4029</v>
       </c>
       <c r="O5" t="n">
-        <v>26966</v>
+        <v>40665</v>
       </c>
       <c r="P5" t="n">
-        <v>950</v>
+        <v>1457</v>
       </c>
       <c r="Q5" t="n">
-        <v>5758</v>
+        <v>11225</v>
       </c>
       <c r="R5" t="n">
-        <v>1355</v>
+        <v>1494</v>
       </c>
       <c r="S5" t="n">
-        <v>926</v>
+        <v>1098</v>
       </c>
       <c r="T5" t="n">
-        <v>10506</v>
+        <v>14615</v>
       </c>
       <c r="U5" t="n">
-        <v>4870</v>
+        <v>8946</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3192</v>
+        <v>3354</v>
       </c>
       <c r="C6" t="n">
-        <v>2565</v>
+        <v>4853</v>
       </c>
       <c r="D6" t="n">
-        <v>1251</v>
+        <v>1850</v>
       </c>
       <c r="E6" t="n">
-        <v>3834</v>
+        <v>5698</v>
       </c>
       <c r="F6" t="n">
-        <v>3229</v>
+        <v>4994</v>
       </c>
       <c r="G6" t="n">
-        <v>1463</v>
+        <v>2515</v>
       </c>
       <c r="H6" t="n">
-        <v>1201</v>
+        <v>1560</v>
       </c>
       <c r="I6" t="n">
-        <v>1883</v>
+        <v>2705</v>
       </c>
       <c r="J6" t="n">
-        <v>12295</v>
+        <v>14746</v>
       </c>
       <c r="K6" t="n">
-        <v>2198</v>
+        <v>1555</v>
       </c>
       <c r="L6" t="n">
-        <v>617</v>
+        <v>570</v>
       </c>
       <c r="M6" t="n">
-        <v>4349</v>
+        <v>5762</v>
       </c>
       <c r="N6" t="n">
-        <v>3095</v>
+        <v>4182</v>
       </c>
       <c r="O6" t="n">
-        <v>30249</v>
+        <v>40460</v>
       </c>
       <c r="P6" t="n">
-        <v>1038</v>
+        <v>1592</v>
       </c>
       <c r="Q6" t="n">
-        <v>6685</v>
+        <v>11667</v>
       </c>
       <c r="R6" t="n">
-        <v>1479</v>
+        <v>1558</v>
       </c>
       <c r="S6" t="n">
-        <v>973</v>
+        <v>1093</v>
       </c>
       <c r="T6" t="n">
-        <v>11667</v>
+        <v>13843</v>
       </c>
       <c r="U6" t="n">
-        <v>5496</v>
+        <v>9574</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3092</v>
+        <v>3059</v>
       </c>
       <c r="C7" t="n">
-        <v>2922</v>
+        <v>5072</v>
       </c>
       <c r="D7" t="n">
-        <v>1424</v>
+        <v>1832</v>
       </c>
       <c r="E7" t="n">
-        <v>4335</v>
+        <v>6231</v>
       </c>
       <c r="F7" t="n">
-        <v>3514</v>
+        <v>5071</v>
       </c>
       <c r="G7" t="n">
-        <v>1645</v>
+        <v>2579</v>
       </c>
       <c r="H7" t="n">
-        <v>1266</v>
+        <v>1562</v>
       </c>
       <c r="I7" t="n">
-        <v>2043</v>
+        <v>2769</v>
       </c>
       <c r="J7" t="n">
-        <v>11491</v>
+        <v>14038</v>
       </c>
       <c r="K7" t="n">
-        <v>1258</v>
+        <v>1499</v>
       </c>
       <c r="L7" t="n">
-        <v>598</v>
+        <v>558</v>
       </c>
       <c r="M7" t="n">
-        <v>5215</v>
+        <v>4983</v>
       </c>
       <c r="N7" t="n">
-        <v>3417</v>
+        <v>4163</v>
       </c>
       <c r="O7" t="n">
-        <v>33376</v>
+        <v>37902</v>
       </c>
       <c r="P7" t="n">
-        <v>1171</v>
+        <v>1636</v>
       </c>
       <c r="Q7" t="n">
-        <v>8764</v>
+        <v>11948</v>
       </c>
       <c r="R7" t="n">
-        <v>1420</v>
+        <v>1248</v>
       </c>
       <c r="S7" t="n">
-        <v>949</v>
+        <v>1092</v>
       </c>
       <c r="T7" t="n">
-        <v>12487</v>
+        <v>12248</v>
       </c>
       <c r="U7" t="n">
-        <v>6370</v>
+        <v>9898</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3476</v>
+        <v>2865</v>
       </c>
       <c r="C8" t="n">
-        <v>4455</v>
+        <v>5276</v>
       </c>
       <c r="D8" t="n">
-        <v>1755</v>
+        <v>1795</v>
       </c>
       <c r="E8" t="n">
-        <v>5175</v>
+        <v>6830</v>
       </c>
       <c r="F8" t="n">
-        <v>4654</v>
+        <v>5319</v>
       </c>
       <c r="G8" t="n">
-        <v>2383</v>
+        <v>2851</v>
       </c>
       <c r="H8" t="n">
-        <v>1534</v>
+        <v>1666</v>
       </c>
       <c r="I8" t="n">
-        <v>2630</v>
+        <v>2796</v>
       </c>
       <c r="J8" t="n">
-        <v>14184</v>
+        <v>14948</v>
       </c>
       <c r="K8" t="n">
-        <v>1487</v>
+        <v>1552</v>
       </c>
       <c r="L8" t="n">
-        <v>601</v>
+        <v>540</v>
       </c>
       <c r="M8" t="n">
-        <v>5936</v>
+        <v>4655</v>
       </c>
       <c r="N8" t="n">
-        <v>4029</v>
+        <v>4228</v>
       </c>
       <c r="O8" t="n">
-        <v>40665</v>
+        <v>37767</v>
       </c>
       <c r="P8" t="n">
-        <v>1457</v>
+        <v>1742</v>
       </c>
       <c r="Q8" t="n">
-        <v>11225</v>
+        <v>12650</v>
       </c>
       <c r="R8" t="n">
-        <v>1494</v>
+        <v>1260</v>
       </c>
       <c r="S8" t="n">
-        <v>1098</v>
+        <v>1191</v>
       </c>
       <c r="T8" t="n">
-        <v>14615</v>
+        <v>11796</v>
       </c>
       <c r="U8" t="n">
-        <v>8946</v>
+        <v>10688</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3354</v>
+        <v>2702</v>
       </c>
       <c r="C9" t="n">
-        <v>4853</v>
+        <v>4946</v>
       </c>
       <c r="D9" t="n">
-        <v>1850</v>
+        <v>1608</v>
       </c>
       <c r="E9" t="n">
-        <v>5698</v>
+        <v>8008</v>
       </c>
       <c r="F9" t="n">
-        <v>4994</v>
+        <v>5949</v>
       </c>
       <c r="G9" t="n">
-        <v>2515</v>
+        <v>3203</v>
       </c>
       <c r="H9" t="n">
-        <v>1560</v>
+        <v>1802</v>
       </c>
       <c r="I9" t="n">
-        <v>2705</v>
+        <v>2820</v>
       </c>
       <c r="J9" t="n">
-        <v>14746</v>
+        <v>16568</v>
       </c>
       <c r="K9" t="n">
-        <v>1555</v>
+        <v>1711</v>
       </c>
       <c r="L9" t="n">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="M9" t="n">
-        <v>5762</v>
+        <v>4538</v>
       </c>
       <c r="N9" t="n">
-        <v>4182</v>
+        <v>4452</v>
       </c>
       <c r="O9" t="n">
-        <v>40460</v>
+        <v>39971</v>
       </c>
       <c r="P9" t="n">
-        <v>1592</v>
+        <v>1754</v>
       </c>
       <c r="Q9" t="n">
-        <v>11667</v>
+        <v>13316</v>
       </c>
       <c r="R9" t="n">
-        <v>1558</v>
+        <v>1368</v>
       </c>
       <c r="S9" t="n">
-        <v>1093</v>
+        <v>1291</v>
       </c>
       <c r="T9" t="n">
-        <v>13843</v>
+        <v>12553</v>
       </c>
       <c r="U9" t="n">
-        <v>9574</v>
+        <v>10983</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3059</v>
+        <v>2975</v>
       </c>
       <c r="C10" t="n">
-        <v>5072</v>
+        <v>4841</v>
       </c>
       <c r="D10" t="n">
-        <v>1832</v>
+        <v>1490</v>
       </c>
       <c r="E10" t="n">
-        <v>6231</v>
+        <v>9053</v>
       </c>
       <c r="F10" t="n">
-        <v>5071</v>
+        <v>7333</v>
       </c>
       <c r="G10" t="n">
-        <v>2579</v>
+        <v>3559</v>
       </c>
       <c r="H10" t="n">
-        <v>1562</v>
+        <v>1477</v>
       </c>
       <c r="I10" t="n">
-        <v>2769</v>
+        <v>3048</v>
       </c>
       <c r="J10" t="n">
-        <v>14038</v>
+        <v>19473</v>
       </c>
       <c r="K10" t="n">
-        <v>1499</v>
+        <v>3662</v>
       </c>
       <c r="L10" t="n">
-        <v>558</v>
+        <v>510</v>
       </c>
       <c r="M10" t="n">
-        <v>4983</v>
+        <v>4721</v>
       </c>
       <c r="N10" t="n">
-        <v>4163</v>
+        <v>5055</v>
       </c>
       <c r="O10" t="n">
-        <v>37902</v>
+        <v>46212</v>
       </c>
       <c r="P10" t="n">
-        <v>1636</v>
+        <v>1878</v>
       </c>
       <c r="Q10" t="n">
-        <v>11948</v>
+        <v>14753</v>
       </c>
       <c r="R10" t="n">
-        <v>1248</v>
+        <v>1661</v>
       </c>
       <c r="S10" t="n">
-        <v>1092</v>
+        <v>1139</v>
       </c>
       <c r="T10" t="n">
-        <v>12248</v>
+        <v>14696</v>
       </c>
       <c r="U10" t="n">
-        <v>9898</v>
+        <v>11691</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2865</v>
+        <v>3673</v>
       </c>
       <c r="C11" t="n">
-        <v>5276</v>
+        <v>5341</v>
       </c>
       <c r="D11" t="n">
-        <v>1795</v>
+        <v>1425</v>
       </c>
       <c r="E11" t="n">
-        <v>6830</v>
+        <v>10893</v>
       </c>
       <c r="F11" t="n">
-        <v>5319</v>
+        <v>10278</v>
       </c>
       <c r="G11" t="n">
-        <v>2851</v>
+        <v>4385</v>
       </c>
       <c r="H11" t="n">
-        <v>1666</v>
+        <v>1921</v>
       </c>
       <c r="I11" t="n">
-        <v>2796</v>
+        <v>3568</v>
       </c>
       <c r="J11" t="n">
-        <v>14948</v>
+        <v>24711</v>
       </c>
       <c r="K11" t="n">
-        <v>1552</v>
+        <v>4872</v>
       </c>
       <c r="L11" t="n">
-        <v>540</v>
+        <v>509</v>
       </c>
       <c r="M11" t="n">
-        <v>4655</v>
+        <v>5431</v>
       </c>
       <c r="N11" t="n">
-        <v>4228</v>
+        <v>5617</v>
       </c>
       <c r="O11" t="n">
-        <v>37767</v>
+        <v>58071</v>
       </c>
       <c r="P11" t="n">
-        <v>1742</v>
+        <v>2190</v>
       </c>
       <c r="Q11" t="n">
-        <v>12650</v>
+        <v>17784</v>
       </c>
       <c r="R11" t="n">
-        <v>1260</v>
+        <v>2277</v>
       </c>
       <c r="S11" t="n">
-        <v>1191</v>
+        <v>1295</v>
       </c>
       <c r="T11" t="n">
-        <v>11796</v>
+        <v>19228</v>
       </c>
       <c r="U11" t="n">
-        <v>10688</v>
+        <v>13922</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2702</v>
+        <v>4296</v>
       </c>
       <c r="C12" t="n">
-        <v>4946</v>
+        <v>6241</v>
       </c>
       <c r="D12" t="n">
-        <v>1608</v>
+        <v>1507</v>
       </c>
       <c r="E12" t="n">
-        <v>8008</v>
+        <v>12710</v>
       </c>
       <c r="F12" t="n">
-        <v>5949</v>
+        <v>13268</v>
       </c>
       <c r="G12" t="n">
-        <v>3203</v>
+        <v>5094</v>
       </c>
       <c r="H12" t="n">
-        <v>1802</v>
+        <v>2232</v>
       </c>
       <c r="I12" t="n">
-        <v>2820</v>
+        <v>3877</v>
       </c>
       <c r="J12" t="n">
-        <v>16568</v>
+        <v>29995</v>
       </c>
       <c r="K12" t="n">
-        <v>1711</v>
+        <v>6149</v>
       </c>
       <c r="L12" t="n">
         <v>510</v>
       </c>
       <c r="M12" t="n">
-        <v>4538</v>
+        <v>6256</v>
       </c>
       <c r="N12" t="n">
-        <v>4452</v>
+        <v>6524</v>
       </c>
       <c r="O12" t="n">
-        <v>39971</v>
+        <v>72781</v>
       </c>
       <c r="P12" t="n">
-        <v>1754</v>
+        <v>2562</v>
       </c>
       <c r="Q12" t="n">
-        <v>13316</v>
+        <v>19771</v>
       </c>
       <c r="R12" t="n">
-        <v>1368</v>
+        <v>2698</v>
       </c>
       <c r="S12" t="n">
-        <v>1291</v>
+        <v>1337</v>
       </c>
       <c r="T12" t="n">
-        <v>12553</v>
+        <v>25334</v>
       </c>
       <c r="U12" t="n">
-        <v>10983</v>
+        <v>16513</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2975</v>
+        <v>5069</v>
       </c>
       <c r="C13" t="n">
-        <v>4841</v>
+        <v>7403</v>
       </c>
       <c r="D13" t="n">
-        <v>1490</v>
+        <v>1651</v>
       </c>
       <c r="E13" t="n">
-        <v>9053</v>
+        <v>14247</v>
       </c>
       <c r="F13" t="n">
-        <v>7333</v>
+        <v>16373</v>
       </c>
       <c r="G13" t="n">
-        <v>3559</v>
+        <v>5807</v>
       </c>
       <c r="H13" t="n">
-        <v>1477</v>
+        <v>2598</v>
       </c>
       <c r="I13" t="n">
-        <v>3048</v>
+        <v>4206</v>
       </c>
       <c r="J13" t="n">
-        <v>19473</v>
+        <v>35082</v>
       </c>
       <c r="K13" t="n">
-        <v>3662</v>
+        <v>6890</v>
       </c>
       <c r="L13" t="n">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="M13" t="n">
-        <v>4721</v>
+        <v>7787</v>
       </c>
       <c r="N13" t="n">
-        <v>5055</v>
+        <v>7707</v>
       </c>
       <c r="O13" t="n">
-        <v>46212</v>
+        <v>89627</v>
       </c>
       <c r="P13" t="n">
-        <v>1878</v>
+        <v>3005</v>
       </c>
       <c r="Q13" t="n">
-        <v>14753</v>
+        <v>22010</v>
       </c>
       <c r="R13" t="n">
-        <v>1661</v>
+        <v>3214</v>
       </c>
       <c r="S13" t="n">
-        <v>1139</v>
+        <v>1257</v>
       </c>
       <c r="T13" t="n">
-        <v>14696</v>
+        <v>32056</v>
       </c>
       <c r="U13" t="n">
-        <v>11691</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3673</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5341</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1425</v>
-      </c>
-      <c r="E14" t="n">
-        <v>10893</v>
-      </c>
-      <c r="F14" t="n">
-        <v>10278</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4385</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1921</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3568</v>
-      </c>
-      <c r="J14" t="n">
-        <v>24711</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4872</v>
-      </c>
-      <c r="L14" t="n">
-        <v>509</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5431</v>
-      </c>
-      <c r="N14" t="n">
-        <v>5617</v>
-      </c>
-      <c r="O14" t="n">
-        <v>58071</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2190</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>17784</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2277</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1295</v>
-      </c>
-      <c r="T14" t="n">
-        <v>19228</v>
-      </c>
-      <c r="U14" t="n">
-        <v>13922</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4296</v>
-      </c>
-      <c r="C15" t="n">
-        <v>6241</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1507</v>
-      </c>
-      <c r="E15" t="n">
-        <v>12710</v>
-      </c>
-      <c r="F15" t="n">
-        <v>13268</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5094</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2232</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3877</v>
-      </c>
-      <c r="J15" t="n">
-        <v>29995</v>
-      </c>
-      <c r="K15" t="n">
-        <v>6149</v>
-      </c>
-      <c r="L15" t="n">
-        <v>510</v>
-      </c>
-      <c r="M15" t="n">
-        <v>6256</v>
-      </c>
-      <c r="N15" t="n">
-        <v>6524</v>
-      </c>
-      <c r="O15" t="n">
-        <v>72781</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2562</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>19771</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2698</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1337</v>
-      </c>
-      <c r="T15" t="n">
-        <v>25334</v>
-      </c>
-      <c r="U15" t="n">
-        <v>16513</v>
+        <v>19635</v>
       </c>
     </row>
   </sheetData>
